--- a/solution_v3/data/rooms.xlsx
+++ b/solution_v3/data/rooms.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,87 +453,447 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>F101</t>
+          <t>F102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classroom</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FLUID</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F102</t>
+          <t>F103</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classroom</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>META</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F103</t>
+          <t>F104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>ROBOT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F104</t>
+          <t>F107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Classroom</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FLUID</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F105</t>
+          <t>F108</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
+          <t>FLUID</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F109</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FLUID</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F114</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>F118</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>F202</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>F203</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>F204</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>F207</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>F208</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>F209</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>F214</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>F216</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>F218</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>F221</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>F223</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>F224</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>F225</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>F226</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>F317</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>F322</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>F341</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>F342</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>I201</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>I301</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>I401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
